--- a/hot-deploy/partner/document/20140222富桥需求/20140222需求.xlsx
+++ b/hot-deploy/partner/document/20140222富桥需求/20140222需求.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="20140222需求" sheetId="1" r:id="rId1"/>
+    <sheet name="成品手工出仓单打印格式1" sheetId="3" r:id="rId2"/>
+    <sheet name="成品手工出仓单打印格式2" sheetId="4" r:id="rId3"/>
+    <sheet name="出货通知单打印格式" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,10 +81,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t>需求分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以加上对应版数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,23 +89,149 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>原需求未提出“成品进仓单”、“成品出仓单”、“成品手工出仓单”和“成品退货单”等功能需要打印功能，也未提供相关的打印样式，如需要增加相应的打印功能，需要提新需求。请确定是否需要新增打印功能并提供打印样式，我们再进行分析和评估。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以增加委外出库数据。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未确定</t>
+    <t>增加下面统计指标：
+安全库存：在“料品资料维护”提取数据。
+可供出货周数：（车间结存加仓库结存）除安全库存 （即是厂内库存之和除安全库存）
+库存情况：可供出货周数小于2显示：红色旗仔，可供出货周数大于4显示：黄色旗仔，可供出货周数等于2或小于4不设颜色提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未确定</t>
+    <t>仓库管理-成品管理-出货通知单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待分析</t>
+    <t>修改打印格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、出货通知单的打印格式更改。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的打印都取消此行字。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪个用户进入系统，打印出来的单据就显示哪个用户的名称。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印纸张的大小与采购入库的打印纸张一样（约B5大小）。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、成品手工出仓单打印格式（2个打印格式）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品手工出仓单打印格式1大致上与采购入库单的打印格式一样。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品手工出仓单打印格式1：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为“出仓单”。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的打印都取消此行字。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为“客户”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消“验收”两个字。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为“出货员”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“收货单位及经手人（盖章）：”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印纸张的大小与采购入库的打印纸张一样（约B5大小）。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品手工出仓单打印格式2：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的打印都取消此行字。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为“单位”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增出货通知单打印功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见“成品手工出仓单打印格式1”和“成品手工出仓单打印格式2”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货通知单打印格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照需求修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-分析统计-实时库存情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-采购管理-采购单管理
+仓库管理-采购管理-采购入库
+仓库管理-采购管理-采购退货
+仓库管理-委外加工-委外领料
+仓库管理-委外加工-委外退货
+仓库管理-委外加工-委外入库
+仓库管理-委外加工-委外退货
+仓库管理-车间制造-制造领料
+仓库管理-车间制造-制造退料
+仓库管理-车间制造-制造入库
+仓库管理-车间制造-制造退货
+仓库管理-成品管理-出货通知单
+仓库管理-库存调整-仓库调整单
+仓库管理-库存调整-车间调整单
+仓库管理-库存调整-供应商调整单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉打印头部“富桥实业有限公司-仓库管理系统”字样。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">修改打印格式
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +290,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -238,13 +397,35 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -263,6 +444,1350 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1973580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2416810</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Jeff\AppData\Roaming\Tencent\Users\6702282\QQ\WinTemp\GE\BFFE2AFF-37B3-447A-9CE2-608BC022E375.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5577839" y="6682740"/>
+          <a:ext cx="2317751" cy="1112520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>365760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2424431</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1478280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\Jeff\AppData\Roaming\Tencent\Users\6702282\QQ\WinTemp\GE\BFFE2AFF-37B3-447A-9CE2-608BC022E375.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5585460" y="2644140"/>
+          <a:ext cx="2317751" cy="1112520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2522220" y="7528560"/>
+          <a:ext cx="7018020" cy="4358640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5280660" y="7673340"/>
+          <a:ext cx="1706880" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1729740" y="7863840"/>
+          <a:ext cx="3566160" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2987040" y="8511540"/>
+          <a:ext cx="419100" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 17"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1577340" y="8602980"/>
+          <a:ext cx="1402080" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7719060" y="8519160"/>
+          <a:ext cx="281940" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8016240" y="8717280"/>
+          <a:ext cx="2034540" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5547360" y="8214360"/>
+          <a:ext cx="1127760" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Line 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6690360" y="7863840"/>
+          <a:ext cx="3383280" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF00FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="14"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3025140" y="11269980"/>
+          <a:ext cx="457200" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF00FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="14"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1043940" y="11551920"/>
+          <a:ext cx="2004060" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5669280" y="11285220"/>
+          <a:ext cx="495300" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5943600" y="11513820"/>
+          <a:ext cx="137160" cy="1363980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2880360" y="15278100"/>
+          <a:ext cx="6774180" cy="4526280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5684520" y="15483840"/>
+          <a:ext cx="1440180" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1722120" y="15590520"/>
+          <a:ext cx="3924300" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7246620" y="16276320"/>
+          <a:ext cx="434340" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7612380" y="16497300"/>
+          <a:ext cx="2598420" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2545080" y="304800"/>
+          <a:ext cx="6774180" cy="4526280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5273040" y="510540"/>
+          <a:ext cx="1485900" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1744980" y="624840"/>
+          <a:ext cx="3520440" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7863840" y="3710940"/>
+          <a:ext cx="419100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3680460" y="3939540"/>
+          <a:ext cx="4183380" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,19 +2077,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
     <col min="4" max="4" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -600,61 +2125,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="17">
         <v>41707</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="13">
         <v>300</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="17">
         <v>41707</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="121.8" x14ac:dyDescent="0.25">
+      <c r="I3" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -664,31 +2189,1846 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="7">
+        <v>41721</v>
+      </c>
+      <c r="H4" s="3">
+        <v>600</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
+      <c r="D5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>41714</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="174" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7">
+        <v>41714</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="261" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7">
+        <v>41714</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7">
       <formula1>"新增,变更,删除"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E5" location="出货通知单打印格式!A1" display="出货通知单打印格式"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hot-deploy/partner/document/20140222富桥需求/20140222需求.xlsx
+++ b/hot-deploy/partner/document/20140222富桥需求/20140222需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="20140222需求" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>去掉打印头部“富桥实业有限公司-仓库管理系统”字样。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2079,24 +2075,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2179,7 +2175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2205,10 +2201,10 @@
         <v>600</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="139.19999999999999" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="138" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>41</v>
@@ -2234,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="174" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="172.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2261,10 +2257,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="261" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="258.75" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2314,9 +2310,9 @@
       <selection sqref="A1:R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2334,7 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2356,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2380,7 +2376,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -2402,7 +2398,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2424,7 +2420,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -2446,7 +2442,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2466,7 +2462,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2486,7 +2482,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2506,7 +2502,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2526,7 +2522,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2546,7 +2542,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>31</v>
@@ -2570,7 +2566,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2590,7 +2586,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2610,7 +2606,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2630,7 +2626,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2650,7 +2646,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2670,7 +2666,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2690,7 +2686,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2710,7 +2706,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2730,7 +2726,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2750,7 +2746,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2770,7 +2766,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2790,7 +2786,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2810,7 +2806,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2830,7 +2826,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2850,7 +2846,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2870,7 +2866,7 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
@@ -2892,7 +2888,7 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2912,7 +2908,7 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2932,7 +2928,7 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2954,7 +2950,7 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -2976,7 +2972,7 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3011,9 +3007,9 @@
       <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3032,7 +3028,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -3053,7 +3049,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3072,7 +3068,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3091,7 +3087,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3110,7 +3106,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
@@ -3131,7 +3127,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3150,7 +3146,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3169,7 +3165,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3188,7 +3184,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3207,7 +3203,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3226,7 +3222,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3245,7 +3241,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3264,7 +3260,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3283,7 +3279,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3304,7 +3300,7 @@
       </c>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3323,7 +3319,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3342,7 +3338,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3361,7 +3357,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3380,7 +3376,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3399,7 +3395,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3418,7 +3414,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3437,7 +3433,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3456,7 +3452,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3475,7 +3471,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3494,7 +3490,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3513,7 +3509,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
@@ -3534,7 +3530,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3568,9 +3564,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -3588,7 +3584,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3604,7 +3600,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3620,7 +3616,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3636,7 +3632,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -3654,7 +3650,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3670,7 +3666,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3686,7 +3682,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3702,7 +3698,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3718,7 +3714,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3734,7 +3730,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3750,7 +3746,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3766,7 +3762,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3782,7 +3778,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3798,7 +3794,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3814,7 +3810,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3830,7 +3826,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3846,7 +3842,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3862,7 +3858,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3878,7 +3874,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3894,7 +3890,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3910,7 +3906,7 @@
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3926,7 +3922,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3942,7 +3938,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3958,7 +3954,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3974,7 +3970,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
@@ -3992,7 +3988,7 @@
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4008,7 +4004,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
